--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,493 +76,484 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.844+/-0.001</t>
-  </si>
-  <si>
-    <t>0.814+/-0.0</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.953+/-0.005</t>
-  </si>
-  <si>
-    <t>0.706+/-0.09</t>
+    <t>0.843+/-0.001</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.949+/-0.006</t>
+  </si>
+  <si>
+    <t>0.699+/-0.075</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.233+/-0.005</t>
+  </si>
+  <si>
+    <t>0.128+/-0.039</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>4.921+/-0.055</t>
+  </si>
+  <si>
+    <t>0.815+/-0.001</t>
+  </si>
+  <si>
+    <t>0.806+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.673+/-0.009</t>
+  </si>
+  <si>
+    <t>0.573+/-0.067</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.161+/-0.007</t>
+  </si>
+  <si>
+    <t>0.136+/-0.041</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.926+/-0.023</t>
+  </si>
+  <si>
+    <t>0.842+/-0.002</t>
+  </si>
+  <si>
+    <t>0.812+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.881+/-0.003</t>
+  </si>
+  <si>
+    <t>0.637+/-0.074</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.251+/-0.009</t>
+  </si>
+  <si>
+    <t>0.16+/-0.039</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>3.499+/-0.024</t>
+  </si>
+  <si>
+    <t>0.813+/-0.001</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.791+/-0.009</t>
+  </si>
+  <si>
+    <t>0.685+/-0.071</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.1+/-0.007</t>
+  </si>
+  <si>
+    <t>0.081+/-0.035</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.526+/-0.01</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.882+/-0.001</t>
+  </si>
+  <si>
+    <t>0.859+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.957+/-0.005</t>
+  </si>
+  <si>
+    <t>0.676+/-0.062</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.223+/-0.008</t>
+  </si>
+  <si>
+    <t>0.112+/-0.017</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>5.018+/-0.087</t>
+  </si>
+  <si>
+    <t>0.862+/-0.001</t>
+  </si>
+  <si>
+    <t>0.854+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.671+/-0.019</t>
+  </si>
+  <si>
+    <t>0.555+/-0.082</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.153+/-0.008</t>
+  </si>
+  <si>
+    <t>0.128+/-0.032</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.887+/-0.03</t>
+  </si>
+  <si>
+    <t>0.883+/-0.001</t>
+  </si>
+  <si>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.909+/-0.011</t>
+  </si>
+  <si>
+    <t>0.608+/-0.083</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.246+/-0.006</t>
+  </si>
+  <si>
+    <t>0.148+/-0.022</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>3.345+/-0.066</t>
+  </si>
+  <si>
+    <t>0.859+/-0.001</t>
+  </si>
+  <si>
+    <t>0.853+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.781+/-0.009</t>
+  </si>
+  <si>
+    <t>0.609+/-0.13</t>
+  </si>
+  <si>
+    <t>0.079+/-0.01</t>
+  </si>
+  <si>
+    <t>0.052+/-0.019</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.505+/-0.014</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.777+/-0.002</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>0.992+/-0.004</t>
+  </si>
+  <si>
+    <t>0.572+/-0.049</t>
   </si>
   <si>
     <t>0.622</t>
   </si>
   <si>
-    <t>0.234+/-0.005</t>
-  </si>
-  <si>
-    <t>0.13+/-0.04</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>7.432+/-0.119</t>
-  </si>
-  <si>
-    <t>0.815+/-0.001</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.673+/-0.01</t>
-  </si>
-  <si>
-    <t>0.568+/-0.074</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.161+/-0.007</t>
-  </si>
-  <si>
-    <t>0.136+/-0.04</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>1.343+/-0.028</t>
-  </si>
-  <si>
-    <t>0.843+/-0.001</t>
-  </si>
-  <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.878+/-0.01</t>
-  </si>
-  <si>
-    <t>0.625+/-0.073</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.253+/-0.004</t>
-  </si>
-  <si>
-    <t>0.165+/-0.035</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>4.987+/-0.094</t>
-  </si>
-  <si>
-    <t>0.814+/-0.001</t>
-  </si>
-  <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.796+/-0.01</t>
-  </si>
-  <si>
-    <t>0.68+/-0.102</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.099+/-0.007</t>
-  </si>
-  <si>
-    <t>0.076+/-0.035</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.89+/-0.108</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.882+/-0.001</t>
-  </si>
-  <si>
-    <t>0.859+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.957+/-0.006</t>
-  </si>
-  <si>
-    <t>0.686+/-0.093</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.225+/-0.007</t>
-  </si>
-  <si>
-    <t>0.116+/-0.018</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>7.345+/-0.299</t>
-  </si>
-  <si>
-    <t>0.861+/-0.001</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.668+/-0.016</t>
-  </si>
-  <si>
-    <t>0.556+/-0.082</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.145+/-0.007</t>
-  </si>
-  <si>
-    <t>0.121+/-0.025</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1.257+/-0.036</t>
-  </si>
-  <si>
-    <t>0.884+/-0.001</t>
-  </si>
-  <si>
-    <t>0.858+/-0.0</t>
-  </si>
-  <si>
-    <t>0.902+/-0.008</t>
-  </si>
-  <si>
-    <t>0.609+/-0.065</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.251+/-0.008</t>
-  </si>
-  <si>
-    <t>0.15+/-0.032</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>4.327+/-0.129</t>
-  </si>
-  <si>
-    <t>0.859+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.806+/-0.014</t>
-  </si>
-  <si>
-    <t>0.647+/-0.118</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.081+/-0.008</t>
-  </si>
-  <si>
-    <t>0.057+/-0.014</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.842+/-0.019</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.781+/-0.002</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.993+/-0.002</t>
-  </si>
-  <si>
-    <t>0.566+/-0.053</t>
+    <t>0.197+/-0.007</t>
+  </si>
+  <si>
+    <t>0.063+/-0.014</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>5.001+/-0.068</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.669+/-0.016</t>
+  </si>
+  <si>
+    <t>0.484+/-0.093</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.095+/-0.006</t>
+  </si>
+  <si>
+    <t>0.067+/-0.018</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.91+/-0.017</t>
+  </si>
+  <si>
+    <t>0.768+/-0.002</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.911+/-0.011</t>
+  </si>
+  <si>
+    <t>0.551+/-0.048</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.182+/-0.005</t>
+  </si>
+  <si>
+    <t>0.093+/-0.013</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>3.605+/-0.217</t>
+  </si>
+  <si>
+    <t>0.732+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.943+/-0.017</t>
+  </si>
+  <si>
+    <t>0.584+/-0.272</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.035+/-0.005</t>
+  </si>
+  <si>
+    <t>0.017+/-0.01</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.582+/-0.052</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.74+/-0.002</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.991+/-0.003</t>
+  </si>
+  <si>
+    <t>0.63+/-0.054</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.157+/-0.007</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>6.245+/-0.586</t>
+  </si>
+  <si>
+    <t>0.704+/-0.001</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.685+/-0.025</t>
+  </si>
+  <si>
+    <t>0.497+/-0.089</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.073+/-0.005</t>
+  </si>
+  <si>
+    <t>0.049+/-0.015</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.928+/-0.013</t>
+  </si>
+  <si>
+    <t>0.738+/-0.002</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.915+/-0.009</t>
+  </si>
+  <si>
+    <t>0.472+/-0.061</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.164+/-0.007</t>
+  </si>
+  <si>
+    <t>0.07+/-0.013</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>3.634+/-0.075</t>
+  </si>
+  <si>
+    <t>0.699+/-0.001</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.922+/-0.027</t>
+  </si>
+  <si>
+    <t>0.641+/-0.186</t>
   </si>
   <si>
     <t>0.625</t>
   </si>
   <si>
-    <t>0.21+/-0.007</t>
-  </si>
-  <si>
-    <t>0.063+/-0.014</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>8.087+/-0.273</t>
-  </si>
-  <si>
-    <t>0.737+/-0.001</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.663+/-0.018</t>
-  </si>
-  <si>
-    <t>0.485+/-0.076</t>
-  </si>
-  <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>0.1+/-0.007</t>
-  </si>
-  <si>
-    <t>0.073+/-0.02</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>1.442+/-0.023</t>
-  </si>
-  <si>
-    <t>0.767+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.901+/-0.019</t>
-  </si>
-  <si>
-    <t>0.535+/-0.054</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.178+/-0.007</t>
-  </si>
-  <si>
-    <t>0.091+/-0.011</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>5.42+/-0.119</t>
-  </si>
-  <si>
-    <t>0.735+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.906+/-0.018</t>
-  </si>
-  <si>
-    <t>0.613+/-0.13</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.049+/-0.005</t>
-  </si>
-  <si>
-    <t>0.027+/-0.008</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>0.946+/-0.017</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.74+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.991+/-0.005</t>
-  </si>
-  <si>
-    <t>0.641+/-0.075</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.157+/-0.006</t>
-  </si>
-  <si>
-    <t>0.053+/-0.022</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>7.551+/-0.161</t>
-  </si>
-  <si>
-    <t>0.704+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.691+/-0.037</t>
-  </si>
-  <si>
-    <t>0.52+/-0.114</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.071+/-0.006</t>
-  </si>
-  <si>
-    <t>0.049+/-0.012</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>1.273+/-0.016</t>
-  </si>
-  <si>
-    <t>0.736+/-0.002</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.912+/-0.011</t>
-  </si>
-  <si>
-    <t>0.509+/-0.064</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.159+/-0.006</t>
-  </si>
-  <si>
-    <t>0.078+/-0.02</t>
-  </si>
-  <si>
-    <t>0.082</t>
-  </si>
-  <si>
-    <t>4.73+/-0.111</t>
-  </si>
-  <si>
-    <t>0.7+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.925+/-0.015</t>
-  </si>
-  <si>
-    <t>0.683+/-0.091</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.028+/-0.003</t>
-  </si>
-  <si>
-    <t>0.017+/-0.007</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>0.858+/-0.021</t>
+    <t>0.026+/-0.004</t>
+  </si>
+  <si>
+    <t>0.014+/-0.006</t>
+  </si>
+  <si>
+    <t>0.524+/-0.018</t>
   </si>
 </sst>
 </file>
@@ -1181,13 +1172,13 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>91</v>
@@ -1201,16 +1192,16 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,16 +1212,16 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1241,16 +1232,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1261,16 +1252,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1281,16 +1272,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1301,10 +1292,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
@@ -1321,10 +1312,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
@@ -1341,10 +1332,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>89</v>
@@ -1358,13 +1349,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
@@ -1420,7 +1411,7 @@
         <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1437,10 +1428,10 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1457,7 +1448,7 @@
         <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>133</v>
@@ -1477,7 +1468,7 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>134</v>
@@ -1497,7 +1488,7 @@
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
         <v>135</v>
@@ -1517,7 +1508,7 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>136</v>
@@ -1537,7 +1528,7 @@
         <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>137</v>
@@ -1557,7 +1548,7 @@
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>138</v>
@@ -1577,7 +1568,7 @@
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>139</v>
@@ -1597,7 +1588,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>140</v>
@@ -1641,16 +1632,16 @@
         <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,16 +1652,16 @@
         <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1678,19 +1669,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,16 +1692,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,16 +1712,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,16 +1732,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,16 +1752,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,16 +1772,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,16 +1792,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,16 +1812,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
